--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -84,21 +84,12 @@
     <t>Add options to filter the displayed list of earthquakes</t>
   </si>
   <si>
-    <t>Configure scrollable lists to display earthquakes for a input location</t>
-  </si>
-  <si>
     <t>Location detection &amp; advertisements display</t>
   </si>
   <si>
     <t>Second version with Advertisements from stakeholders</t>
   </si>
   <si>
-    <t>Fetch data for a specific location from the online geographical API</t>
-  </si>
-  <si>
-    <t>Fetch data for a customizable location from the online geographical API</t>
-  </si>
-  <si>
     <t>Calculate a risk rating using both earthquake and population data</t>
   </si>
   <si>
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>Completion of Internal Workings of the application</t>
+  </si>
+  <si>
+    <t>Represent GeoLoc objects using an undirected Graph</t>
+  </si>
+  <si>
+    <t>Fetch data for a customizable location from the geographical API</t>
+  </si>
+  <si>
+    <t>Configure scrollable lists to display earthquakes for an input location</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -741,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -804,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8"/>
     </row>
@@ -822,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="15"/>
     </row>

--- a/Document/ProductBacklog.xlsx
+++ b/Document/ProductBacklog.xlsx
@@ -51,9 +51,6 @@
     <t>Sort EarthquakeT objects based on magnitude using MergeSort &amp; QuickSort</t>
   </si>
   <si>
-    <t>Display the average population within radius of a customizable location</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Configure scrollable lists to display earthquakes for an input location</t>
+  </si>
+  <si>
+    <t>Display the average population within a radius of a customizable location</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8"/>
     </row>
@@ -741,16 +741,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -759,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="13"/>
     </row>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -777,25 +777,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="C20" s="15"/>
     </row>
@@ -804,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8"/>
     </row>
@@ -813,25 +813,25 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="15"/>
     </row>
@@ -855,6 +855,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
